--- a/test0.xlsx
+++ b/test0.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arai14\Documents\4job\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02800264-D95E-4E61-B325-7DE1C1881473}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A5BEC-E1BD-4827-BD6F-BDDA2EC5A897}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5E996374-43DC-4D17-AB8B-724F87AC9963}"/>
   </bookViews>
@@ -391,12 +391,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{453B9F3F-C843-4ADD-9414-B250547B74AA}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
